--- a/data/InningCountsNine.xlsx
+++ b/data/InningCountsNine.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D06097-E285-4C79-9183-ECE0D679121D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DEB87A-47C2-4BEA-8655-DFC40D07227F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18780" yWindow="2370" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18435" yWindow="2025" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Player</t>
   </si>
@@ -147,6 +146,9 @@
   </si>
   <si>
     <t>9 3.26&gt;3.95</t>
+  </si>
+  <si>
+    <t>Week 23</t>
   </si>
 </sst>
 </file>
@@ -512,11 +514,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W21"/>
+  <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N16" sqref="N16"/>
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,7 +527,7 @@
     <col min="2" max="20" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -595,8 +597,11 @@
       <c r="W1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -646,7 +651,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
         <v>1.06</v>
       </c>
@@ -699,7 +704,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -736,8 +741,11 @@
       <c r="U4">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X4">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6">
@@ -781,7 +789,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -828,7 +836,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -850,7 +858,7 @@
       <c r="T7" s="5"/>
       <c r="U7" s="6"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -890,8 +898,11 @@
       <c r="W8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X8">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B9" s="6">
         <v>1.1399999999999999</v>
       </c>
@@ -939,7 +950,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -986,7 +997,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B11" s="5">
         <v>0.71</v>
       </c>
@@ -1034,22 +1045,22 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>31</v>
       </c>

--- a/data/InningCountsNine.xlsx
+++ b/data/InningCountsNine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DEB87A-47C2-4BEA-8655-DFC40D07227F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144EC2AB-4333-4F4D-B266-49450957EE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18435" yWindow="2025" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2055" yWindow="1665" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Player</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>Week 23</t>
+  </si>
+  <si>
+    <t>Week 24</t>
   </si>
 </sst>
 </file>
@@ -514,11 +517,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X21"/>
+  <dimension ref="A1:Y21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X14" sqref="X14"/>
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,7 +530,7 @@
     <col min="2" max="20" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -600,8 +603,11 @@
       <c r="X1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -650,8 +656,11 @@
       <c r="V2">
         <v>1.41</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y2">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
         <v>1.06</v>
       </c>
@@ -703,8 +712,11 @@
       <c r="V3" s="3">
         <v>1.63</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y3">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -745,7 +757,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6">
@@ -789,7 +801,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -836,7 +848,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -858,7 +870,7 @@
       <c r="T7" s="5"/>
       <c r="U7" s="6"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -902,7 +914,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B9" s="6">
         <v>1.1399999999999999</v>
       </c>
@@ -950,7 +962,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -997,7 +1009,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B11" s="5">
         <v>0.71</v>
       </c>
@@ -1045,22 +1057,22 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>31</v>
       </c>

--- a/data/InningCountsNine.xlsx
+++ b/data/InningCountsNine.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144EC2AB-4333-4F4D-B266-49450957EE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59553C58-D168-45BA-9530-047E9E0145A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2055" yWindow="1665" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,8 +34,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Player</t>
   </si>
@@ -152,6 +174,12 @@
   </si>
   <si>
     <t>Week 24</t>
+  </si>
+  <si>
+    <t>Week 25</t>
+  </si>
+  <si>
+    <t>Week 26</t>
   </si>
 </sst>
 </file>
@@ -517,11 +545,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y21"/>
+  <dimension ref="A1:AA21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R23" sqref="R23"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,7 +558,7 @@
     <col min="2" max="20" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -606,8 +634,14 @@
       <c r="Y1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -623,9 +657,18 @@
       <c r="E2">
         <v>1.1499999999999999</v>
       </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
       <c r="G2">
         <v>1.1599999999999999</v>
       </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
       <c r="J2">
         <v>1.55</v>
       </c>
@@ -635,12 +678,18 @@
       <c r="L2">
         <v>1.24</v>
       </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
       <c r="N2">
         <v>2.82</v>
       </c>
       <c r="O2">
         <v>1.45</v>
       </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
       <c r="Q2">
         <v>1.07</v>
       </c>
@@ -650,32 +699,55 @@
       <c r="S2">
         <v>0.91</v>
       </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
       <c r="U2">
         <v>1.48</v>
       </c>
       <c r="V2">
         <v>1.41</v>
       </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
       <c r="Y2">
         <v>1.55</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z2">
+        <v>1.35</v>
+      </c>
+      <c r="AA2">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
+        <f>(SUM(B2)/COUNT(B2))</f>
         <v>1.06</v>
       </c>
-      <c r="C3" s="3">
-        <v>0.99</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3">
-        <v>1.1399999999999999</v>
+      <c r="C3" s="3" cm="1">
+        <f t="array" ref="C3">(SUM(LARGE($B2:G2,_xlfn.SEQUENCE(CEILING((COUNTIF($B2:G2,"&gt;0")/2),1)))/CEILING((COUNTIF($B2:G2,"&gt;0")/2),1)))</f>
+        <v>1.1400000000000001</v>
+      </c>
+      <c r="D3" s="3" cm="1">
+        <f t="array" ref="D3">(SUM(LARGE($B2:H2,_xlfn.SEQUENCE(CEILING((COUNTIF($B2:H2,"&gt;0")/2),1)))/CEILING((COUNTIF($B2:H2,"&gt;0")/2),1)))</f>
+        <v>1.1400000000000001</v>
+      </c>
+      <c r="E3" s="3" cm="1">
+        <f t="array" ref="E3">(SUM(LARGE($B2:I2,_xlfn.SEQUENCE(CEILING((COUNTIF($B2:I2,"&gt;0")/2),1)))/CEILING((COUNTIF($B2:I2,"&gt;0")/2),1)))</f>
+        <v>1.1400000000000001</v>
+      </c>
+      <c r="F3" s="3" cm="1">
+        <f t="array" ref="F3">(SUM(LARGE($B2:J2,_xlfn.SEQUENCE(CEILING((COUNTIF($B2:J2,"&gt;0")/2),1)))/CEILING((COUNTIF($B2:J2,"&gt;0")/2),1)))</f>
+        <v>1.2866666666666666</v>
+      </c>
+      <c r="G3" s="3" cm="1">
+        <f t="array" ref="G3">(SUM(LARGE($B2:K2,_xlfn.SEQUENCE(CEILING((COUNTIF($B2:K2,"&gt;0")/2),1)))/CEILING((COUNTIF($B2:K2,"&gt;0")/2),1)))</f>
+        <v>1.4500000000000002</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -716,16 +788,25 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
       <c r="D4">
         <v>1.39</v>
       </c>
       <c r="E4">
         <v>0.79</v>
       </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
       <c r="G4">
         <v>0.41</v>
       </c>
@@ -741,23 +822,56 @@
       <c r="K4">
         <v>0.59</v>
       </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
       <c r="M4">
         <v>1.5</v>
       </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
       <c r="O4" s="4">
         <v>0.69</v>
       </c>
       <c r="P4">
         <v>1.32</v>
       </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
       <c r="U4">
         <v>0.74</v>
       </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
       <c r="X4">
         <v>1.25</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0.83</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6">
@@ -801,16 +915,22 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
       <c r="B6">
         <v>0.54</v>
       </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
       <c r="D6">
         <v>0.7</v>
       </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
       <c r="F6">
         <v>0.53</v>
       </c>
@@ -820,6 +940,9 @@
       <c r="H6">
         <v>0.73</v>
       </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
       <c r="J6">
         <v>0.86</v>
       </c>
@@ -829,15 +952,24 @@
       <c r="L6">
         <v>0.68</v>
       </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
       <c r="N6">
         <v>0.5</v>
       </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
       <c r="P6">
         <v>0.86</v>
       </c>
       <c r="Q6">
         <v>0.63</v>
       </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
       <c r="S6">
         <v>0.47</v>
       </c>
@@ -847,8 +979,26 @@
       <c r="U6">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0.6</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -870,7 +1020,7 @@
       <c r="T7" s="5"/>
       <c r="U7" s="6"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -889,12 +1039,24 @@
       <c r="F8">
         <v>0.78</v>
       </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
       <c r="I8">
         <v>0.15</v>
       </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
       <c r="K8">
         <v>0.86</v>
       </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
       <c r="M8">
         <v>1</v>
       </c>
@@ -904,6 +1066,24 @@
       <c r="O8">
         <v>1.25</v>
       </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
       <c r="V8">
         <v>1.47</v>
       </c>
@@ -913,8 +1093,17 @@
       <c r="X8">
         <v>1.53</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>1.56</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B9" s="6">
         <v>1.1399999999999999</v>
       </c>
@@ -962,7 +1151,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -972,6 +1161,9 @@
       <c r="C10">
         <v>1.06</v>
       </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
       <c r="E10">
         <v>0.73</v>
       </c>
@@ -984,32 +1176,65 @@
       <c r="H10">
         <v>0.95</v>
       </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
       <c r="J10">
         <v>1</v>
       </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
       <c r="L10">
         <v>3.17</v>
       </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
       <c r="N10">
         <v>1.79</v>
       </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
       <c r="P10">
         <v>0.78</v>
       </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
       <c r="R10">
         <v>0.7</v>
       </c>
       <c r="S10">
         <v>1.79</v>
       </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
       <c r="U10">
         <v>1</v>
       </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
       <c r="W10">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B11" s="5">
         <v>0.71</v>
       </c>
@@ -1057,22 +1282,22 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>31</v>
       </c>
